--- a/biology/Médecine/Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil/Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil.xlsx
+++ b/biology/Médecine/Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil/Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université nationale médicale Ivan-Horbatchevsky de Ternopil (en ukrainien Тернопільський національний медичний університет імені І. Я. Горбачевського) est une université publique qui se trouve à Ternopil, dans l'Ouest de l'Ukraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appellations précédentes[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellations précédentes
 1957-1992 — l'Institut d'État de médecine de Ternopil.
 1992-1997 — l'Institut d'État de médecine Ivan-Horbatchevsky de Ternopil.
 1997-2004 — l'Académie d'État de médecine Ivan-Horbatchevsky de Ternopil.
 2007-2019 — l'Université d'État de médecine Ivan-Horbatchevsky de Ternopil.
-depuis 2019 — l'Université nationale de médecine Ivan-Horbatchevsky de Ternopil[3].
-Le premier numéro de 203 pharmacies a eu lieu en juin 1961[4].
-En 1969, un déploiement préparatoire a été ouvert. Il a travaillé jusqu'en 1992 et a été reconstitué en 1997 aux ressortissants étrangers[4].
-En 2015, l'université est devenue membre de l'Association des universités européennes (EUA) et en 2016, elle est entrée dans le programme d'université balte (BUP)[4].
-Le 27 septembre 2016, un centre de formation de simulation a été ouvert[4].
+depuis 2019 — l'Université nationale de médecine Ivan-Horbatchevsky de Ternopil.
+Le premier numéro de 203 pharmacies a eu lieu en juin 1961.
+En 1969, un déploiement préparatoire a été ouvert. Il a travaillé jusqu'en 1992 et a été reconstitué en 1997 aux ressortissants étrangers.
+En 2015, l'université est devenue membre de l'Association des universités européennes (EUA) et en 2016, elle est entrée dans le programme d'université balte (BUP).
+Le 27 septembre 2016, un centre de formation de simulation a été ouvert.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,23 +565,23 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'université est actuellement constituée de quatre facultés[5]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est actuellement constituée de quatre facultés:
 médical
 pharmaceutique
 dentaire
 étudiants étrangers
-Instituts pédagogiques et scientifiques[6]:
+Instituts pédagogiques et scientifiques:
 morphologie;
 problèmes médicaux et biologiques;
 pharmacologie, hygiène et biochimie médicale M. P. Skakun;
 modélisation et analyse des processus pathologiques;
 soins infirmiers;
 formation postdoctorale.
-Il y a plus de 57 départements dans l'université[7].
-Musées
-L'université gère plusieurs musées comme le musée Ivan-Horbatchevsky, un musée d'anatomie, d'histoire de la médecine, musée Leonod Kovaltchouk.
+Il y a plus de 57 départements dans l'université.
 </t>
         </is>
       </c>
@@ -578,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,13 +607,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Éducation et science</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plus de 6 085 étudiants étudient à l'université, dont plus de 1 700 citoyens étrangers originaires de 68 pays, dont plus de 90 % étudient en anglais[8].
-La recherche scientifique est effectuée dans cinq laboratoires scientifiques[9].
+          <t>Musées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université gère plusieurs musées comme le musée Ivan-Horbatchevsky, un musée d'anatomie, d'histoire de la médecine, musée Leonod Kovaltchouk.
 </t>
         </is>
       </c>
@@ -610,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,13 +644,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Activité internationale</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Université coopère avec 69 établissements médicaux et d'enseignement étrangers et des établissements de santé de plus de 20 pays du monde en particulier Université Toulouse-III-Paul-Sabatier[10],[11],[12].
-Depuis 2006 sur la base du complexe éducatif "Chervona kalyna" chaque été ils partent dans les "Universités d'été pour étudiants"[13].
+          <t>Éducation et science</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 6 085 étudiants étudient à l'université, dont plus de 1 700 citoyens étrangers originaires de 68 pays, dont plus de 90 % étudient en anglais.
+La recherche scientifique est effectuée dans cinq laboratoires scientifiques.
 </t>
         </is>
       </c>
@@ -642,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,12 +678,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diplômés</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au total, plus de 26 000 étudiants ont été diplômés de l'Université, dont 2 360 étudiants d'origine internationale[8].
+          <t>Activité internationale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Université coopère avec 69 établissements médicaux et d'enseignement étrangers et des établissements de santé de plus de 20 pays du monde en particulier Université Toulouse-III-Paul-Sabatier.
+Depuis 2006 sur la base du complexe éducatif "Chervona kalyna" chaque été ils partent dans les "Universités d'été pour étudiants".
 </t>
         </is>
       </c>
@@ -673,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,14 +712,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diplômés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au total, plus de 26 000 étudiants ont été diplômés de l'Université, dont 2 360 étudiants d'origine internationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Université_nationale_médicale_Ivan-Horbatchevsky_de_Ternopil</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_nationale_m%C3%A9dicale_Ivan-Horbatchevsky_de_Ternopil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les résultats du système d'évaluation "Krok", l'université occupe constamment la première place parmi les établissements d'enseignement médical supérieur de l'Ukraine[14].
-En 2017, l'université se classait à la 7e place parmi les universités d'Ukraine et à la 1re place des universités médicales d'Ukraine dans le classement du portail international de l'éducation «4 International Colleges &amp; Universities»[15].
-Certificat et norme internationale ISO 9001: 2015 (gestion de la qualité) pour les activités éducatives et scientifiques conformes aux normes internationales (2017)[16].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les résultats du système d'évaluation "Krok", l'université occupe constamment la première place parmi les établissements d'enseignement médical supérieur de l'Ukraine.
+En 2017, l'université se classait à la 7e place parmi les universités d'Ukraine et à la 1re place des universités médicales d'Ukraine dans le classement du portail international de l'éducation «4 International Colleges &amp; Universities».
+Certificat et norme internationale ISO 9001: 2015 (gestion de la qualité) pour les activités éducatives et scientifiques conformes aux normes internationales (2017).
 </t>
         </is>
       </c>
